--- a/data/excel/new_employee_details.xlsx
+++ b/data/excel/new_employee_details.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
-    <sheet name="perfromance" sheetId="2" r:id="rId2"/>
+    <sheet name="performance" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
